--- a/data.xlsx
+++ b/data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Python Projects\Controle Estoque Kary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE61A962-04A6-40D7-9C40-7827126429A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB98727-0E17-474F-BE20-83CC6F0022A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estoque" sheetId="1" r:id="rId1"/>
-    <sheet name="categorias" sheetId="2" r:id="rId2"/>
+    <sheet name="vendas" sheetId="2" r:id="rId2"/>
+    <sheet name="categorias" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t>cod</t>
   </si>
@@ -53,7 +54,7 @@
     <t>data_entrada</t>
   </si>
   <si>
-    <t>data_saida</t>
+    <t>cod_venda</t>
   </si>
   <si>
     <t>Mom Jeans</t>
@@ -122,9 +123,6 @@
     <t>Calça Skinny Cintura Alta</t>
   </si>
   <si>
-    <t>36 37 38</t>
-  </si>
-  <si>
     <t>Preto</t>
   </si>
   <si>
@@ -134,19 +132,46 @@
     <t>Calçado</t>
   </si>
   <si>
-    <t xml:space="preserve">36 37 </t>
-  </si>
-  <si>
     <t>Converse</t>
   </si>
   <si>
     <t xml:space="preserve">Branco Preto </t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>Regata</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Camiseta-Comprida</t>
+  </si>
+  <si>
+    <t>nome_cliente</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>modo_entrega</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>itens</t>
+  </si>
+  <si>
+    <t>valor_total</t>
+  </si>
+  <si>
+    <t>desconto</t>
   </si>
   <si>
     <t>cores_programa</t>
@@ -167,12 +192,6 @@
     <t>#dda15e</t>
   </si>
   <si>
-    <t>Camiseta-Comprida</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
     <t>#bc6c25</t>
   </si>
   <si>
@@ -197,9 +216,6 @@
     <t>#283618</t>
   </si>
   <si>
-    <t>Regata</t>
-  </si>
-  <si>
     <t>Bege</t>
   </si>
   <si>
@@ -227,9 +243,6 @@
     <t>Colete</t>
   </si>
   <si>
-    <t>30-</t>
-  </si>
-  <si>
     <t>Violeta</t>
   </si>
   <si>
@@ -323,7 +336,79 @@
     <t>Salmao</t>
   </si>
   <si>
-    <t>50+</t>
+    <t>forma_pagamento</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T36 T37 T38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T36 T37 </t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>T50+</t>
+  </si>
+  <si>
+    <t>T30-</t>
   </si>
 </sst>
 </file>
@@ -698,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,8 +939,8 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5">
-        <v>36</v>
+      <c r="D5" t="s">
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -890,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -899,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -919,28 +1004,28 @@
         <v>65532</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -956,17 +1041,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -983,33 +1121,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1017,45 +1155,45 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -1065,10 +1203,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
@@ -1078,290 +1216,290 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="1">
-        <v>30</v>
+      <c r="E11" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>32</v>
+      <c r="E12" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="1">
-        <v>33</v>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="1">
-        <v>34</v>
+      <c r="E14" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="1">
-        <v>35</v>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="1">
-        <v>36</v>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="1">
-        <v>37</v>
+      <c r="E17" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="1">
-        <v>38</v>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="1">
-        <v>39</v>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="1">
-        <v>40</v>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="1">
-        <v>41</v>
+      <c r="E21" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="1">
-        <v>42</v>
+      <c r="E22" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="1">
-        <v>43</v>
+      <c r="E23" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="1">
-        <v>44</v>
+      <c r="E24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="1">
-        <v>45</v>
+      <c r="E25" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="1">
-        <v>46</v>
+      <c r="E26" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1">
-        <v>47</v>
+      <c r="E27" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="1">
-        <v>48</v>
+      <c r="E28" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="1">
-        <v>49</v>
+      <c r="E29" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="1">
-        <v>50</v>
+      <c r="E30" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,7 +1508,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Python Projects\Controle Estoque Kary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB98727-0E17-474F-BE20-83CC6F0022A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850AD053-0790-4502-987D-41B245912F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
   <si>
     <t>cod</t>
   </si>
@@ -159,9 +159,6 @@
     <t>uf</t>
   </si>
   <si>
-    <t>modo_entrega</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -409,6 +406,45 @@
   </si>
   <si>
     <t>T30-</t>
+  </si>
+  <si>
+    <t>valor_entrega</t>
+  </si>
+  <si>
+    <t>tipo_entrega</t>
+  </si>
+  <si>
+    <t>Retirada</t>
+  </si>
+  <si>
+    <t>Correios</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>tipo_pagamento</t>
+  </si>
+  <si>
+    <t>Dinheiro</t>
+  </si>
+  <si>
+    <t>Boleto</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Pix</t>
+  </si>
+  <si>
+    <t>Outro</t>
   </si>
 </sst>
 </file>
@@ -784,7 +820,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -975,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1010,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1041,18 +1077,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1069,22 +1107,25 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1094,17 +1135,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1118,27 +1159,39 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
@@ -1152,42 +1205,60 @@
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -1199,307 +1270,313 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1508,7 +1585,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,6 +39,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -50,12 +55,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -83,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -93,6 +113,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -460,66 +483,66 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>cod</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>categoria</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>tamanho</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>genero</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>marca</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>cor</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>valor_compra</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>valor_venda</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>data_entrada</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>cod_venda</t>
         </is>
@@ -766,10 +789,8 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>V-23-02-09-166</t>
-        </is>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -817,9 +838,207 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>V-23-02-09-982</t>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13808</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jaqueta Couro Bomber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jaqueta</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Unissex</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caramelo </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>60</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>78136</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Camisa Listrada</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Camiseta-Curta</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M G </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Beagle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creme Azul-Acizentado </t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55776</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jaqueta Jeans Cgc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Jaqueta</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M G </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Unissex</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Colcci</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azul-Jeans </t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>V-23-02-10-396</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1492</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coturno Couro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Calçado</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T37 T38 </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Unissex</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Doc Martens</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Preto </t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>V-23-02-10-396</t>
         </is>
       </c>
     </row>
@@ -834,10 +1053,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -851,67 +1070,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>cod_venda</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>nome_cliente</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>cpf</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>cidade</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>uf</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>itens</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>valor_total</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>valor_entrega</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>tipo_entrega</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>valor_desconto</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>valor_final</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>forma_pagamento</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
@@ -920,36 +1139,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V-23-02-09-982</t>
+          <t>V-23-02-10-396</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>65532</v>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01234567890</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cidade</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1492 55776</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Retirada</t>
+          <t>Correios</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -958,54 +1191,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>V-23-02-09-166</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>36280</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Retirada</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Boleto</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023-02-09</t>
+          <t>2023-02-10</t>
         </is>
       </c>
     </row>
